--- a/PotencialRH.xlsx
+++ b/PotencialRH.xlsx
@@ -421,13 +421,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6732.29711111111</v>
+        <v>81.13891666666667</v>
       </c>
       <c r="D2">
-        <v>6740.164555555557</v>
+        <v>81.20771666666666</v>
       </c>
       <c r="E2">
-        <v>6725.168777777778</v>
+        <v>81.07304999999999</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -438,13 +438,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>65.53822222222223</v>
+        <v>81.84110555555554</v>
       </c>
       <c r="D3">
-        <v>73.3215</v>
+        <v>81.90684444444443</v>
       </c>
       <c r="E3">
-        <v>58.39183333333333</v>
+        <v>81.77792777777778</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -455,13 +455,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>65.34161111111111</v>
+        <v>82.71720555555557</v>
       </c>
       <c r="D4">
-        <v>73.20288888888889</v>
+        <v>82.78242777777776</v>
       </c>
       <c r="E4">
-        <v>58.21333333333332</v>
+        <v>82.65506666666667</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -472,13 +472,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>65.21333333333334</v>
+        <v>84.21916666666668</v>
       </c>
       <c r="D5">
-        <v>72.99205555555554</v>
+        <v>84.28216111111111</v>
       </c>
       <c r="E5">
-        <v>58.12994444444443</v>
+        <v>84.15694999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -489,13 +489,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>65.04527777777778</v>
+        <v>85.18503333333332</v>
       </c>
       <c r="D6">
-        <v>72.84249999999999</v>
+        <v>85.24587777777781</v>
       </c>
       <c r="E6">
-        <v>57.97611111111111</v>
+        <v>85.12419444444446</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -506,13 +506,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>64.91255555555556</v>
+        <v>86.39543333333332</v>
       </c>
       <c r="D7">
-        <v>72.74755555555554</v>
+        <v>86.45503333333336</v>
       </c>
       <c r="E7">
-        <v>57.89777777777777</v>
+        <v>86.33636666666666</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -523,13 +523,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>3398.169222222222</v>
+        <v>86.11752777777777</v>
       </c>
       <c r="D8">
-        <v>3405.9835</v>
+        <v>86.20442777777777</v>
       </c>
       <c r="E8">
-        <v>3391.138333333335</v>
+        <v>86.03193333333336</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>50064.71005555556</v>
+        <v>82.32176111111109</v>
       </c>
       <c r="D9">
-        <v>50072.42266666667</v>
+        <v>82.48849444444444</v>
       </c>
       <c r="E9">
-        <v>50057.71138888889</v>
+        <v>82.15482222222221</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -557,13 +557,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>65.9001111111111</v>
+        <v>76.15496111111112</v>
       </c>
       <c r="D10">
-        <v>73.69183333333334</v>
+        <v>76.41596666666668</v>
       </c>
       <c r="E10">
-        <v>58.87416666666666</v>
+        <v>75.89304999999997</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,13 +574,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>66.59327777777777</v>
+        <v>69.45009444444443</v>
       </c>
       <c r="D11">
-        <v>74.50922222222225</v>
+        <v>69.79133888888889</v>
       </c>
       <c r="E11">
-        <v>59.53461111111111</v>
+        <v>69.10507222222222</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -591,13 +591,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>3400.526333333334</v>
+        <v>64.52436111111111</v>
       </c>
       <c r="D12">
-        <v>3408.435722222222</v>
+        <v>64.89941111111111</v>
       </c>
       <c r="E12">
-        <v>3393.425555555556</v>
+        <v>64.14577777777778</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -608,13 +608,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3401.074722222222</v>
+        <v>61.34621111111109</v>
       </c>
       <c r="D13">
-        <v>3409.173777777781</v>
+        <v>61.75836111111111</v>
       </c>
       <c r="E13">
-        <v>3393.81411111111</v>
+        <v>60.93251111111111</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -625,13 +625,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>68.14483333333332</v>
+        <v>58.81879444444446</v>
       </c>
       <c r="D14">
-        <v>76.2038888888889</v>
+        <v>59.23738333333333</v>
       </c>
       <c r="E14">
-        <v>60.85272222222223</v>
+        <v>58.39905555555556</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -642,13 +642,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>68.40194444444442</v>
+        <v>57.47051111111111</v>
       </c>
       <c r="D15">
-        <v>76.53405555555555</v>
+        <v>57.85348333333332</v>
       </c>
       <c r="E15">
-        <v>61.02150000000001</v>
+        <v>57.07443888888888</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -659,13 +659,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>68.63116666666669</v>
+        <v>58.18181111111111</v>
       </c>
       <c r="D16">
-        <v>76.80283333333334</v>
+        <v>58.55193333333334</v>
       </c>
       <c r="E16">
-        <v>61.23955555555556</v>
+        <v>57.79910000000002</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -676,13 +676,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>68.78038888888889</v>
+        <v>61.35392777777777</v>
       </c>
       <c r="D17">
-        <v>77.0455</v>
+        <v>61.66037777777778</v>
       </c>
       <c r="E17">
-        <v>61.32350000000001</v>
+        <v>61.03648888888888</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -693,13 +693,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>68.61316666666667</v>
+        <v>67.42278333333334</v>
       </c>
       <c r="D18">
-        <v>76.89761111111116</v>
+        <v>67.64384444444445</v>
       </c>
       <c r="E18">
-        <v>61.14938888888889</v>
+        <v>67.19509444444444</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -710,13 +710,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>67.90622222222221</v>
+        <v>74.99716666666669</v>
       </c>
       <c r="D19">
-        <v>76.05816666666668</v>
+        <v>75.12869444444445</v>
       </c>
       <c r="E19">
-        <v>60.6208888888889</v>
+        <v>74.86385</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -727,13 +727,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>66.89205555555557</v>
+        <v>79.29308888888892</v>
       </c>
       <c r="D20">
-        <v>74.94022222222223</v>
+        <v>79.38724444444443</v>
       </c>
       <c r="E20">
-        <v>59.75505555555557</v>
+        <v>79.19844444444448</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -744,13 +744,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>66.60077777777779</v>
+        <v>80.68686111111111</v>
       </c>
       <c r="D21">
-        <v>79.95455555555556</v>
+        <v>80.76614999999998</v>
       </c>
       <c r="E21">
-        <v>59.41744444444444</v>
+        <v>80.60726666666665</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -761,13 +761,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>66.33872222222223</v>
+        <v>81.17535555555556</v>
       </c>
       <c r="D22">
-        <v>74.22572222222223</v>
+        <v>81.25341666666668</v>
       </c>
       <c r="E22">
-        <v>59.33327777777777</v>
+        <v>81.09915555555555</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -778,13 +778,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>66.21683333333334</v>
+        <v>80.29249444444446</v>
       </c>
       <c r="D23">
-        <v>74.07188888888891</v>
+        <v>80.36918888888889</v>
       </c>
       <c r="E23">
-        <v>59.10844444444444</v>
+        <v>80.21645000000004</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -795,13 +795,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>66.13400000000003</v>
+        <v>79.94278333333335</v>
       </c>
       <c r="D24">
-        <v>74.06516666666667</v>
+        <v>80.01092222222225</v>
       </c>
       <c r="E24">
-        <v>59.01227777777778</v>
+        <v>79.87648333333335</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -812,13 +812,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>63.73516666666665</v>
+        <v>77.70269444444443</v>
       </c>
       <c r="D25">
-        <v>71.29877777777779</v>
+        <v>77.76785</v>
       </c>
       <c r="E25">
-        <v>56.85177777777778</v>
+        <v>77.63811111111112</v>
       </c>
     </row>
   </sheetData>
